--- a/Aggregate Output.xlsx
+++ b/Aggregate Output.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26915"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -16,6 +16,9 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="33">
   <si>
     <t>Sequential</t>
   </si>
@@ -79,6 +82,51 @@
   <si>
     <t>Parallel: 2 process(es)</t>
   </si>
+  <si>
+    <t>Validated</t>
+  </si>
+  <si>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t>OSX Timings</t>
+  </si>
+  <si>
+    <t>CIMS Crunchy1 Timings</t>
+  </si>
+  <si>
+    <t>Note: Unable due to memory limitations in OSX</t>
+  </si>
+  <si>
+    <t>Averages</t>
+  </si>
+  <si>
+    <t>1 Process</t>
+  </si>
+  <si>
+    <t>2 Processes</t>
+  </si>
+  <si>
+    <t>4 Processes</t>
+  </si>
+  <si>
+    <t>8 Processes</t>
+  </si>
+  <si>
+    <t>16 Processes</t>
+  </si>
+  <si>
+    <t>32 Processes</t>
+  </si>
+  <si>
+    <t>64 Processes</t>
+  </si>
+  <si>
+    <t>Speedup</t>
+  </si>
+  <si>
+    <t>* Where speedup = Time_Sequential / Time_Parallel</t>
+  </si>
 </sst>
 </file>
 
@@ -101,12 +149,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="16">
@@ -324,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -341,6 +395,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -353,6 +414,2662 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Parallel Linear Equations Solver (Average) Runtime Analysis</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Small</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$O$10:$O$16</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1 Process</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 Processes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4 Processes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8 Processes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16 Processes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32 Processes</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64 Processes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$10:$P$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.146</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.162</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.168</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.212</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.178</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.192</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.508</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Medium</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$O$10:$O$16</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1 Process</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 Processes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4 Processes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8 Processes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16 Processes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32 Processes</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64 Processes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$10:$Q$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.142</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.164</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.164</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.214</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.174</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.246</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Large</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$O$10:$O$16</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1 Process</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 Processes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4 Processes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8 Processes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16 Processes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32 Processes</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64 Processes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$10:$R$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.164</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.166</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.212</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.174</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.224</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.618</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Huge</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$O$10:$O$16</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1 Process</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 Processes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4 Processes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8 Processes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16 Processes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32 Processes</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64 Processes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$10:$S$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.158</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.162</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.214</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.176</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.232</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.438</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-2050452752"/>
+        <c:axId val="-2050379456"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2050452752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Processes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2050379456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2050379456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Runtime (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2050452752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Parallel Linear Equations Solver Speedup Analysis</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Small</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$O$39:$O$45</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1 Process</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 Processes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4 Processes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8 Processes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16 Processes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32 Processes</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64 Processes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$39:$P$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Medium</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$O$39:$O$45</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1 Process</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 Processes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4 Processes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8 Processes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16 Processes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32 Processes</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64 Processes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$39:$Q$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.028169014084507</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98780487804878</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.024390243902439</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.990654205607477</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.022988505747126</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.780487804878049</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.846666666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Large</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$O$39:$O$45</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1 Process</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 Processes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4 Processes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8 Processes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16 Processes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32 Processes</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64 Processes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$39:$R$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.973333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98780487804878</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.012048192771084</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.022988505747126</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.822006472491909</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Huge</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$O$39:$O$45</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1 Process</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 Processes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4 Processes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8 Processes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16 Processes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32 Processes</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64 Processes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$39:$S$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.924050632911393</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.990654205607477</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.011363636363636</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.827586206896552</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.159817351598174</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-2061411808"/>
+        <c:axId val="-2050434864"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2061411808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Processes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2050434864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2050434864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (Relative to 1 process)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2061411808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -618,724 +3335,2160 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:S65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="Q6" workbookViewId="0">
+      <selection activeCell="AA30" sqref="AA30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+    <row r="3" spans="1:19" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B3" s="5">
         <v>5.7000000000000003E-5</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C3" s="2">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D3" s="2">
         <v>1.26E-4</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E3" s="2">
         <v>5.9699999999999998E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B4" s="6">
         <v>4.8000000000000001E-5</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C4" s="1">
         <v>6.2000000000000003E-5</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D4" s="1">
         <v>9.3999999999999994E-5</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E4" s="1">
         <v>8.8500000000000004E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B5" s="6">
         <v>5.3999999999999998E-5</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C5" s="1">
         <v>7.2999999999999999E-5</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D5" s="1">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E5" s="1">
         <v>6.1600000000000001E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B6" s="6">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C6" s="1">
         <v>5.8E-5</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D6" s="1">
         <v>9.7999999999999997E-5</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E6" s="1">
         <v>6.1499999999999999E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+    <row r="7" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B7" s="11">
         <v>9.2E-5</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C7" s="12">
         <v>5.5000000000000002E-5</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D7" s="12">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E7" s="12">
         <v>7.7700000000000002E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+    <row r="8" spans="1:19" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="14">
-        <f>AVERAGE(B2:B6)</f>
+      <c r="B8" s="14">
+        <f>AVERAGE(B3:B7)</f>
         <v>6.02E-5</v>
       </c>
-      <c r="C7" s="15">
-        <f>AVERAGE(C2:C6)</f>
+      <c r="C8" s="15">
+        <f>AVERAGE(C3:C7)</f>
         <v>6.3600000000000001E-5</v>
       </c>
-      <c r="D7" s="15">
-        <f>AVERAGE(D2:D6)</f>
+      <c r="D8" s="15">
+        <f>AVERAGE(D3:D7)</f>
         <v>9.5599999999999993E-5</v>
       </c>
-      <c r="E7" s="15">
-        <f>AVERAGE(E2:E6)</f>
+      <c r="E8" s="15">
+        <f>AVERAGE(E3:E7)</f>
         <v>6.9800000000000005E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="F8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8" s="18"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+    </row>
+    <row r="9" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+      <c r="H10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="P10" s="5">
+        <f>I16</f>
+        <v>0.14600000000000002</v>
+      </c>
+      <c r="Q10" s="2">
+        <f>J16</f>
+        <v>0.14200000000000002</v>
+      </c>
+      <c r="R10" s="5">
+        <f>K16</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="S10" s="5">
+        <f>L16</f>
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="B11" s="5">
+        <v>1.5663E-2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1.6452999999999999E-2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1.5472E-2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1.6618999999999998E-2</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P11" s="6">
+        <f>I24</f>
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="Q11" s="1">
+        <f>J24</f>
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="R11" s="6">
+        <f>K24</f>
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="S11" s="6">
+        <f>L24</f>
+        <v>0.16200000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+      <c r="B12" s="6">
+        <v>1.5271E-2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.5334E-2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.5192000000000001E-2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1.6747000000000001E-2</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P12" s="6">
+        <f>I32</f>
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="Q12" s="1">
+        <f>J32</f>
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="R12" s="6">
+        <f>K32</f>
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="S12" s="6">
+        <f>L32</f>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+      <c r="B13" s="6">
+        <v>1.5169E-2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1.5494000000000001E-2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.5441E-2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1.6404999999999999E-2</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="P13" s="5">
+        <f>I40</f>
+        <v>0.21200000000000002</v>
+      </c>
+      <c r="Q13" s="1">
+        <f>J40</f>
+        <v>0.21400000000000002</v>
+      </c>
+      <c r="R13" s="5">
+        <f>K40</f>
+        <v>0.21200000000000002</v>
+      </c>
+      <c r="S13" s="5">
+        <f>L40</f>
+        <v>0.21400000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="B14" s="6">
+        <v>1.5223E-2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1.6001000000000001E-2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.5357000000000001E-2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.5446E-2</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P14" s="6">
+        <f>I48</f>
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="Q14" s="1">
+        <f>J48</f>
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="R14" s="6">
+        <f>K48</f>
+        <v>0.17400000000000002</v>
+      </c>
+      <c r="S14" s="6">
+        <f>L48</f>
+        <v>0.17600000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-    </row>
-    <row r="15" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+      <c r="B15" s="11">
+        <v>1.5271E-2</v>
+      </c>
+      <c r="C15" s="12">
+        <v>1.5355000000000001E-2</v>
+      </c>
+      <c r="D15" s="12">
+        <v>1.5238E-2</v>
+      </c>
+      <c r="E15" s="12">
+        <v>1.6263E-2</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="J15" s="12">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K15" s="12">
+        <v>0.16</v>
+      </c>
+      <c r="L15" s="12">
+        <v>0.16</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="P15" s="6">
+        <f>I56</f>
+        <v>0.192</v>
+      </c>
+      <c r="Q15" s="1">
+        <f>J56</f>
+        <v>0.246</v>
+      </c>
+      <c r="R15" s="6">
+        <f>K56</f>
+        <v>0.22400000000000003</v>
+      </c>
+      <c r="S15" s="6">
+        <f>L56</f>
+        <v>0.23199999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="14" t="e">
-        <f>AVERAGE(B10:B14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C15" s="15" t="e">
-        <f>AVERAGE(C10:C14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D15" s="15" t="e">
-        <f>AVERAGE(D10:D14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E15" s="15" t="e">
-        <f>AVERAGE(E10:E14)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="B16" s="14">
+        <f>AVERAGE(B11:B15)</f>
+        <v>1.53194E-2</v>
+      </c>
+      <c r="C16" s="15">
+        <f>AVERAGE(C11:C15)</f>
+        <v>1.5727400000000002E-2</v>
+      </c>
+      <c r="D16" s="15">
+        <f>AVERAGE(D11:D15)</f>
+        <v>1.5340000000000001E-2</v>
+      </c>
+      <c r="E16" s="15">
+        <f>AVERAGE(E11:E15)</f>
+        <v>1.6295999999999998E-2</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="14">
+        <f>AVERAGE(I11:I15)</f>
+        <v>0.14600000000000002</v>
+      </c>
+      <c r="J16" s="15">
+        <f>AVERAGE(J11:J15)</f>
+        <v>0.14200000000000002</v>
+      </c>
+      <c r="K16" s="15">
+        <f>AVERAGE(K11:K15)</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="L16" s="15">
+        <f>AVERAGE(L11:L15)</f>
+        <v>0.158</v>
+      </c>
+      <c r="M16" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="P16" s="5">
+        <f>I64</f>
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="Q16" s="1">
+        <f>J64</f>
+        <v>0.6</v>
+      </c>
+      <c r="R16" s="5">
+        <f>K64</f>
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="S16" s="5">
+        <f>L64</f>
+        <v>0.438</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P17" s="17"/>
+    </row>
+    <row r="18" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
+      <c r="H18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+      <c r="B19" s="5">
+        <v>2.8354000000000001E-2</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2.1089E-2</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2.1475000000000001E-2</v>
+      </c>
+      <c r="E19" s="2">
+        <v>3.5302E-2</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+      <c r="B20" s="6">
+        <v>2.5388000000000001E-2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2.8381E-2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2.8398E-2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2.8486000000000001E-2</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
+      <c r="B21" s="6">
+        <v>2.5489000000000001E-2</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2.5278999999999999E-2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2.0879999999999999E-2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2.8228E-2</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="B22" s="6">
+        <v>2.8077000000000001E-2</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2.8923999999999998E-2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2.4673E-2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2.5301000000000001E-2</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-    </row>
-    <row r="23" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
+      <c r="B23" s="11">
+        <v>2.5170999999999999E-2</v>
+      </c>
+      <c r="C23" s="12">
+        <v>2.5270999999999998E-2</v>
+      </c>
+      <c r="D23" s="12">
+        <v>2.8818E-2</v>
+      </c>
+      <c r="E23" s="12">
+        <v>2.7421000000000001E-2</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="12">
+        <v>0.16</v>
+      </c>
+      <c r="J23" s="12">
+        <v>0.16</v>
+      </c>
+      <c r="K23" s="12">
+        <v>0.17</v>
+      </c>
+      <c r="L23" s="12">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="14" t="e">
-        <f>AVERAGE(B18:B22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C23" s="15" t="e">
-        <f>AVERAGE(C18:C22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D23" s="15" t="e">
-        <f>AVERAGE(D18:D22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E23" s="15" t="e">
-        <f>AVERAGE(E18:E22)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="B24" s="14">
+        <f>AVERAGE(B19:B23)</f>
+        <v>2.6495800000000003E-2</v>
+      </c>
+      <c r="C24" s="15">
+        <f>AVERAGE(C19:C23)</f>
+        <v>2.5788799999999994E-2</v>
+      </c>
+      <c r="D24" s="15">
+        <f>AVERAGE(D19:D23)</f>
+        <v>2.4848799999999997E-2</v>
+      </c>
+      <c r="E24" s="15">
+        <f>AVERAGE(E19:E23)</f>
+        <v>2.89476E-2</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="14">
+        <f>AVERAGE(I19:I23)</f>
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="J24" s="15">
+        <f>AVERAGE(J19:J23)</f>
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="K24" s="15">
+        <f>AVERAGE(K19:K23)</f>
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="L24" s="15">
+        <f>AVERAGE(L19:L23)</f>
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="M24" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B26" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
+      <c r="H26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
+      <c r="B27" s="5">
+        <v>2.6492000000000002E-2</v>
+      </c>
+      <c r="C27" s="2">
+        <v>2.3788E-2</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2.7196000000000001E-2</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2.5094000000000002E-2</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
+      <c r="B28" s="6">
+        <v>2.6449E-2</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2.5246999999999999E-2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2.6927E-2</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2.3546999999999998E-2</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="J28" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
+      <c r="B29" s="6">
+        <v>2.2114999999999999E-2</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2.5950000000000001E-2</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2.7022000000000001E-2</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2.4218E-2</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="6">
+        <v>0.16</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+      <c r="B30" s="6">
+        <v>2.5964999999999998E-2</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2.7061000000000002E-2</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2.7016999999999999E-2</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2.3331000000000001E-2</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-    </row>
-    <row r="31" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
+      <c r="B31" s="11">
+        <v>2.4612999999999999E-2</v>
+      </c>
+      <c r="C31" s="12">
+        <v>2.3459000000000001E-2</v>
+      </c>
+      <c r="D31" s="12">
+        <v>2.7236E-2</v>
+      </c>
+      <c r="E31" s="12">
+        <v>2.7498999999999999E-2</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" s="11">
+        <v>0.16</v>
+      </c>
+      <c r="J31" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="K31" s="12">
+        <v>0.17</v>
+      </c>
+      <c r="L31" s="12">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="14" t="e">
-        <f>AVERAGE(B26:B30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C31" s="15" t="e">
-        <f>AVERAGE(C26:C30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D31" s="15" t="e">
-        <f>AVERAGE(D26:D30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E31" s="15" t="e">
-        <f>AVERAGE(E26:E30)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+      <c r="B32" s="14">
+        <f>AVERAGE(B27:B31)</f>
+        <v>2.5126799999999998E-2</v>
+      </c>
+      <c r="C32" s="15">
+        <f>AVERAGE(C27:C31)</f>
+        <v>2.5101000000000002E-2</v>
+      </c>
+      <c r="D32" s="15">
+        <f>AVERAGE(D27:D31)</f>
+        <v>2.7079600000000002E-2</v>
+      </c>
+      <c r="E32" s="15">
+        <f>AVERAGE(E27:E31)</f>
+        <v>2.4737800000000001E-2</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="14">
+        <f>AVERAGE(I27:I31)</f>
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="J32" s="15">
+        <f>AVERAGE(J27:J31)</f>
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="K32" s="15">
+        <f>AVERAGE(K27:K31)</f>
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="L32" s="15">
+        <f>AVERAGE(L27:L31)</f>
+        <v>0.16</v>
+      </c>
+      <c r="M32" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B34" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
+      <c r="H34" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="9" t="s">
+      <c r="B35" s="5">
+        <v>3.6469000000000001E-2</v>
+      </c>
+      <c r="C35" s="2">
+        <v>4.0829999999999998E-2</v>
+      </c>
+      <c r="D35" s="2">
+        <v>3.9419999999999997E-2</v>
+      </c>
+      <c r="E35" s="2">
+        <v>3.3251000000000003E-2</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I35" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
+      <c r="B36" s="6">
+        <v>3.2475999999999998E-2</v>
+      </c>
+      <c r="C36" s="1">
+        <v>3.2882000000000002E-2</v>
+      </c>
+      <c r="D36" s="1">
+        <v>4.5955000000000003E-2</v>
+      </c>
+      <c r="E36" s="1">
+        <v>3.3848000000000003E-2</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
+      <c r="B37" s="6">
+        <v>3.7332999999999998E-2</v>
+      </c>
+      <c r="C37" s="1">
+        <v>3.3556000000000002E-2</v>
+      </c>
+      <c r="D37" s="1">
+        <v>4.3195999999999998E-2</v>
+      </c>
+      <c r="E37" s="1">
+        <v>3.9185999999999999E-2</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I37" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="22"/>
+    </row>
+    <row r="38" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
+      <c r="B38" s="6">
+        <v>3.8651999999999999E-2</v>
+      </c>
+      <c r="C38" s="1">
+        <v>3.8011000000000003E-2</v>
+      </c>
+      <c r="D38" s="1">
+        <v>3.6011000000000001E-2</v>
+      </c>
+      <c r="E38" s="1">
+        <v>3.6943999999999998E-2</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I38" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="K38" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R38" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S38" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-    </row>
-    <row r="39" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="13" t="s">
+      <c r="B39" s="11">
+        <v>3.4061000000000001E-2</v>
+      </c>
+      <c r="C39" s="12">
+        <v>3.7103999999999998E-2</v>
+      </c>
+      <c r="D39" s="12">
+        <v>4.4428000000000002E-2</v>
+      </c>
+      <c r="E39" s="12">
+        <v>4.0134999999999997E-2</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" s="11">
+        <v>0.21</v>
+      </c>
+      <c r="J39" s="12">
+        <v>0.21</v>
+      </c>
+      <c r="K39" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="L39" s="12">
+        <v>0.22</v>
+      </c>
+      <c r="O39" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="P39" s="5">
+        <f>P10/P10</f>
+        <v>1</v>
+      </c>
+      <c r="Q39" s="2">
+        <f>P10/Q10</f>
+        <v>1.028169014084507</v>
+      </c>
+      <c r="R39" s="5">
+        <f>P10/R10</f>
+        <v>0.97333333333333327</v>
+      </c>
+      <c r="S39" s="5">
+        <f>P10/S10</f>
+        <v>0.92405063291139256</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="14" t="e">
-        <f>AVERAGE(B34:B38)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C39" s="15" t="e">
-        <f>AVERAGE(C34:C38)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D39" s="15" t="e">
-        <f>AVERAGE(D34:D38)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E39" s="15" t="e">
-        <f>AVERAGE(E34:E38)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+      <c r="B40" s="14">
+        <f>AVERAGE(B35:B39)</f>
+        <v>3.5798200000000002E-2</v>
+      </c>
+      <c r="C40" s="15">
+        <f>AVERAGE(C35:C39)</f>
+        <v>3.6476599999999998E-2</v>
+      </c>
+      <c r="D40" s="15">
+        <f>AVERAGE(D35:D39)</f>
+        <v>4.1801999999999999E-2</v>
+      </c>
+      <c r="E40" s="15">
+        <f>AVERAGE(E35:E39)</f>
+        <v>3.6672799999999998E-2</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I40" s="14">
+        <f>AVERAGE(I35:I39)</f>
+        <v>0.21200000000000002</v>
+      </c>
+      <c r="J40" s="15">
+        <f>AVERAGE(J35:J39)</f>
+        <v>0.21400000000000002</v>
+      </c>
+      <c r="K40" s="15">
+        <f>AVERAGE(K35:K39)</f>
+        <v>0.21200000000000002</v>
+      </c>
+      <c r="L40" s="15">
+        <f>AVERAGE(L35:L39)</f>
+        <v>0.21400000000000002</v>
+      </c>
+      <c r="M40" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="O40" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P40" s="6">
+        <f>P11/P11</f>
+        <v>1</v>
+      </c>
+      <c r="Q40" s="1">
+        <f>P11/Q11</f>
+        <v>0.98780487804878048</v>
+      </c>
+      <c r="R40" s="6">
+        <f>P11/R11</f>
+        <v>0.98780487804878048</v>
+      </c>
+      <c r="S40" s="6">
+        <f>P11/S11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O41" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P41" s="6">
+        <f>P12/P12</f>
+        <v>1</v>
+      </c>
+      <c r="Q41" s="1">
+        <f>P12/Q12</f>
+        <v>1.024390243902439</v>
+      </c>
+      <c r="R41" s="6">
+        <f>P12/R12</f>
+        <v>1.0120481927710843</v>
+      </c>
+      <c r="S41" s="6">
+        <f>P12/S12</f>
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B42" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="8" t="s">
+      <c r="H42" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O42" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="P42" s="5">
+        <f>P13/P13</f>
+        <v>1</v>
+      </c>
+      <c r="Q42" s="1">
+        <f>P13/Q13</f>
+        <v>0.99065420560747663</v>
+      </c>
+      <c r="R42" s="5">
+        <f>P13/R13</f>
+        <v>1</v>
+      </c>
+      <c r="S42" s="5">
+        <f>P13/S13</f>
+        <v>0.99065420560747663</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="9" t="s">
+      <c r="B43" s="5">
+        <v>4.1142999999999999E-2</v>
+      </c>
+      <c r="C43" s="2">
+        <v>3.7421000000000003E-2</v>
+      </c>
+      <c r="D43" s="2">
+        <v>3.7720999999999998E-2</v>
+      </c>
+      <c r="E43" s="2">
+        <v>3.5803000000000001E-2</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I43" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="J43" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="K43" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="L43" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="O43" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P43" s="6">
+        <f>P14/P14</f>
+        <v>1</v>
+      </c>
+      <c r="Q43" s="1">
+        <f>P14/Q14</f>
+        <v>1.0229885057471264</v>
+      </c>
+      <c r="R43" s="6">
+        <f>P14/R14</f>
+        <v>1.0229885057471262</v>
+      </c>
+      <c r="S43" s="6">
+        <f>P14/S14</f>
+        <v>1.0113636363636362</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A44" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="9" t="s">
+      <c r="B44" s="6">
+        <v>3.4063000000000003E-2</v>
+      </c>
+      <c r="C44" s="1">
+        <v>4.4951999999999999E-2</v>
+      </c>
+      <c r="D44" s="1">
+        <v>4.2340999999999997E-2</v>
+      </c>
+      <c r="E44" s="1">
+        <v>3.8536000000000001E-2</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I44" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="O44" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="P44" s="6">
+        <f>P15/P15</f>
+        <v>1</v>
+      </c>
+      <c r="Q44" s="1">
+        <f>P15/Q15</f>
+        <v>0.78048780487804881</v>
+      </c>
+      <c r="R44" s="6">
+        <f>P15/R15</f>
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="S44" s="6">
+        <f>P15/S15</f>
+        <v>0.82758620689655182</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="9" t="s">
+      <c r="B45" s="6">
+        <v>4.1813000000000003E-2</v>
+      </c>
+      <c r="C45" s="1">
+        <v>3.4609000000000001E-2</v>
+      </c>
+      <c r="D45" s="1">
+        <v>3.8054999999999999E-2</v>
+      </c>
+      <c r="E45" s="1">
+        <v>3.7482000000000001E-2</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="L45" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="O45" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="P45" s="5">
+        <f>P16/P16</f>
+        <v>1</v>
+      </c>
+      <c r="Q45" s="1">
+        <f>P16/Q16</f>
+        <v>0.84666666666666668</v>
+      </c>
+      <c r="R45" s="5">
+        <f>P16/R16</f>
+        <v>0.82200647249190939</v>
+      </c>
+      <c r="S45" s="5">
+        <f>P16/S16</f>
+        <v>1.1598173515981736</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A46" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
+      <c r="B46" s="6">
+        <v>3.7651999999999998E-2</v>
+      </c>
+      <c r="C46" s="1">
+        <v>3.8403E-2</v>
+      </c>
+      <c r="D46" s="1">
+        <v>3.8691999999999997E-2</v>
+      </c>
+      <c r="E46" s="1">
+        <v>4.0530999999999998E-2</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I46" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="L46" s="1">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-    </row>
-    <row r="47" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="13" t="s">
+      <c r="B47" s="11">
+        <v>4.0521000000000001E-2</v>
+      </c>
+      <c r="C47" s="12">
+        <v>3.7838999999999998E-2</v>
+      </c>
+      <c r="D47" s="12">
+        <v>3.7046000000000003E-2</v>
+      </c>
+      <c r="E47" s="12">
+        <v>3.9234999999999999E-2</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" s="11">
+        <v>0.17</v>
+      </c>
+      <c r="J47" s="12">
+        <v>0.18</v>
+      </c>
+      <c r="K47" s="12">
+        <v>0.18</v>
+      </c>
+      <c r="L47" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="O47" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="14" t="e">
-        <f>AVERAGE(B42:B46)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C47" s="15" t="e">
-        <f>AVERAGE(C42:C46)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D47" s="15" t="e">
-        <f>AVERAGE(D42:D46)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E47" s="15" t="e">
-        <f>AVERAGE(E42:E46)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
+      <c r="B48" s="14">
+        <f>AVERAGE(B43:B47)</f>
+        <v>3.9038400000000001E-2</v>
+      </c>
+      <c r="C48" s="15">
+        <f>AVERAGE(C43:C47)</f>
+        <v>3.86448E-2</v>
+      </c>
+      <c r="D48" s="15">
+        <f>AVERAGE(D43:D47)</f>
+        <v>3.8771E-2</v>
+      </c>
+      <c r="E48" s="15">
+        <f>AVERAGE(E43:E47)</f>
+        <v>3.8317399999999995E-2</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="14">
+        <f>AVERAGE(I43:I47)</f>
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="J48" s="15">
+        <f>AVERAGE(J43:J47)</f>
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="K48" s="15">
+        <f>AVERAGE(K43:K47)</f>
+        <v>0.17400000000000002</v>
+      </c>
+      <c r="L48" s="15">
+        <f>AVERAGE(L43:L47)</f>
+        <v>0.17600000000000002</v>
+      </c>
+      <c r="M48" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="O48" s="22"/>
+      <c r="P48" s="22"/>
+      <c r="Q48" s="22"/>
+      <c r="R48" s="22"/>
+      <c r="S48" s="22"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O49" s="22"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="22"/>
+      <c r="R49" s="22"/>
+      <c r="S49" s="22"/>
+    </row>
+    <row r="50" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B50" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C50" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D50" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E50" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="8" t="s">
+      <c r="H50" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O50" s="22"/>
+      <c r="P50" s="22"/>
+      <c r="Q50" s="22"/>
+      <c r="R50" s="22"/>
+      <c r="S50" s="22"/>
+    </row>
+    <row r="51" spans="1:19" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="9" t="s">
+      <c r="B51" s="5">
+        <v>4.5075999999999998E-2</v>
+      </c>
+      <c r="C51" s="2">
+        <v>3.8107000000000002E-2</v>
+      </c>
+      <c r="D51" s="2">
+        <v>4.6700999999999999E-2</v>
+      </c>
+      <c r="E51" s="2">
+        <v>3.8484999999999998E-2</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I51" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="J51" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="K51" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="L51" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O51" s="22"/>
+      <c r="P51" s="22"/>
+      <c r="Q51" s="22"/>
+      <c r="R51" s="22"/>
+      <c r="S51" s="22"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A52" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="6"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="9" t="s">
+      <c r="B52" s="6">
+        <v>3.6825999999999998E-2</v>
+      </c>
+      <c r="C52" s="1">
+        <v>3.7108000000000002E-2</v>
+      </c>
+      <c r="D52" s="1">
+        <v>4.4477000000000003E-2</v>
+      </c>
+      <c r="E52" s="1">
+        <v>3.7802000000000002E-2</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I52" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J52" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="K52" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="L52" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="O52" s="22"/>
+      <c r="P52" s="22"/>
+      <c r="Q52" s="22"/>
+      <c r="R52" s="22"/>
+      <c r="S52" s="22"/>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A53" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="9" t="s">
+      <c r="B53" s="6">
+        <v>3.6477000000000002E-2</v>
+      </c>
+      <c r="C53" s="1">
+        <v>3.6457000000000003E-2</v>
+      </c>
+      <c r="D53" s="1">
+        <v>3.8512999999999999E-2</v>
+      </c>
+      <c r="E53" s="1">
+        <v>3.4118999999999997E-2</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I53" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="J53" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="K53" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L53" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="O53" s="22"/>
+      <c r="P53" s="22"/>
+      <c r="Q53" s="22"/>
+      <c r="R53" s="22"/>
+      <c r="S53" s="22"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A54" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-    </row>
-    <row r="54" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="10" t="s">
+      <c r="B54" s="6">
+        <v>3.6267000000000001E-2</v>
+      </c>
+      <c r="C54" s="1">
+        <v>3.9428999999999999E-2</v>
+      </c>
+      <c r="D54" s="1">
+        <v>4.5749999999999999E-2</v>
+      </c>
+      <c r="E54" s="1">
+        <v>3.8668000000000001E-2</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I54" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="J54" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="K54" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="L54" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="O54" s="22"/>
+      <c r="P54" s="22"/>
+      <c r="Q54" s="22"/>
+      <c r="R54" s="22"/>
+      <c r="S54" s="22"/>
+    </row>
+    <row r="55" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="11"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-    </row>
-    <row r="55" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="13" t="s">
+      <c r="B55" s="11">
+        <v>3.6401999999999997E-2</v>
+      </c>
+      <c r="C55" s="12">
+        <v>3.6651000000000003E-2</v>
+      </c>
+      <c r="D55" s="12">
+        <v>3.9047999999999999E-2</v>
+      </c>
+      <c r="E55" s="12">
+        <v>3.3104000000000001E-2</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I55" s="11">
+        <v>0.22</v>
+      </c>
+      <c r="J55" s="12">
+        <v>0.24</v>
+      </c>
+      <c r="K55" s="12">
+        <v>0.23</v>
+      </c>
+      <c r="L55" s="12">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="14" t="e">
-        <f>AVERAGE(B50:B54)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C55" s="15" t="e">
-        <f>AVERAGE(C50:C54)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D55" s="15" t="e">
-        <f>AVERAGE(D50:D54)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E55" s="15" t="e">
-        <f>AVERAGE(E50:E54)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
+      <c r="B56" s="14">
+        <f>AVERAGE(B51:B55)</f>
+        <v>3.8209599999999996E-2</v>
+      </c>
+      <c r="C56" s="15">
+        <f>AVERAGE(C51:C55)</f>
+        <v>3.7550400000000005E-2</v>
+      </c>
+      <c r="D56" s="15">
+        <f>AVERAGE(D51:D55)</f>
+        <v>4.28978E-2</v>
+      </c>
+      <c r="E56" s="15">
+        <f>AVERAGE(E51:E55)</f>
+        <v>3.6435599999999999E-2</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I56" s="14">
+        <f>AVERAGE(I51:I55)</f>
+        <v>0.192</v>
+      </c>
+      <c r="J56" s="15">
+        <f>AVERAGE(J51:J55)</f>
+        <v>0.246</v>
+      </c>
+      <c r="K56" s="15">
+        <f>AVERAGE(K51:K55)</f>
+        <v>0.22400000000000003</v>
+      </c>
+      <c r="L56" s="15">
+        <f>AVERAGE(L51:L55)</f>
+        <v>0.23199999999999998</v>
+      </c>
+      <c r="M56" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A57" s="18"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="20"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
+      <c r="M57" s="20"/>
+    </row>
+    <row r="58" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H58" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="I58" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="J58" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="8" t="s">
+    <row r="59" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B58" s="5"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="9" t="s">
+      <c r="I59" s="5">
+        <v>0.53</v>
+      </c>
+      <c r="J59" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="K59" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="L59" s="2">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="5"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="H60" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="6"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B60" s="6"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I60" s="6">
+        <v>0.51</v>
+      </c>
+      <c r="J60" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="K60" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="L60" s="1">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-    </row>
-    <row r="62" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="10" t="s">
+      <c r="H61" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I61" s="6">
+        <v>0.53</v>
+      </c>
+      <c r="J61" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="K61" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="L61" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A62" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="6"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="H62" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I62" s="6">
+        <v>0.47</v>
+      </c>
+      <c r="J62" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="K62" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="L62" s="1">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="6"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="H63" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B62" s="11"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-    </row>
-    <row r="63" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="13" t="s">
+      <c r="I63" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="J63" s="12">
+        <v>0.48</v>
+      </c>
+      <c r="K63" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="L63" s="12">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" s="11"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="H64" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B63" s="14" t="e">
-        <f>AVERAGE(B58:B62)</f>
+      <c r="I64" s="14">
+        <f>AVERAGE(I59:I63)</f>
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="J64" s="15">
+        <f>AVERAGE(J59:J63)</f>
+        <v>0.6</v>
+      </c>
+      <c r="K64" s="15">
+        <f>AVERAGE(K59:K63)</f>
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="L64" s="15">
+        <f>AVERAGE(L59:L63)</f>
+        <v>0.438</v>
+      </c>
+      <c r="M64" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" s="14" t="e">
+        <f>AVERAGE(B60:B64)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C63" s="15" t="e">
-        <f>AVERAGE(C58:C62)</f>
+      <c r="C65" s="15" t="e">
+        <f>AVERAGE(C60:C64)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D63" s="15" t="e">
-        <f>AVERAGE(D58:D62)</f>
+      <c r="D65" s="15" t="e">
+        <f>AVERAGE(D60:D64)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E63" s="15" t="e">
-        <f>AVERAGE(E58:E62)</f>
+      <c r="E65" s="15" t="e">
+        <f>AVERAGE(E60:E64)</f>
         <v>#DIV/0!</v>
+      </c>
+      <c r="F65" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Aggregate Output.xlsx
+++ b/Aggregate Output.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="34">
   <si>
     <t>Sequential</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>* Where speedup = Time_Sequential / Time_Parallel</t>
+  </si>
+  <si>
+    <t>Performance</t>
   </si>
 </sst>
 </file>
@@ -895,11 +898,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2050452752"/>
-        <c:axId val="-2050379456"/>
+        <c:axId val="-2147265888"/>
+        <c:axId val="-2147271888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2050452752"/>
+        <c:axId val="-2147265888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -997,7 +1000,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2050379456"/>
+        <c:crossAx val="-2147271888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1005,7 +1008,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2050379456"/>
+        <c:axId val="-2147271888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1111,7 +1114,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2050452752"/>
+        <c:crossAx val="-2147265888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1620,11 +1623,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2061411808"/>
-        <c:axId val="-2050434864"/>
+        <c:axId val="-2147308960"/>
+        <c:axId val="-2147314944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2061411808"/>
+        <c:axId val="-2147308960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1722,7 +1725,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2050434864"/>
+        <c:crossAx val="-2147314944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1730,7 +1733,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2050434864"/>
+        <c:axId val="-2147314944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1840,7 +1843,795 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2061411808"/>
+        <c:crossAx val="-2147308960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Parallel</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Linear Equation Solver Performance Analysis</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Small</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$O$60:$O$66</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1 Process</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 Processes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4 Processes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8 Processes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16 Processes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32 Processes</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64 Processes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$60:$P$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.84931506849315</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.172839506172839</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.952380952380952</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.716981132075471</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.617977528089888</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.208333333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.968503937007874</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Medium</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$O$60:$O$66</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1 Process</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 Processes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4 Processes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8 Processes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16 Processes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32 Processes</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64 Processes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$60:$Q$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>7.04225352112676</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.097560975609756</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.097560975609756</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.672897196261681</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.74712643678161</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.065040650406504</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.666666666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Large</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$O$60:$O$66</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1 Process</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 Processes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4 Processes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8 Processes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16 Processes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32 Processes</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64 Processes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$60:$R$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.097560975609756</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.024096385542168</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.716981132075471</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.747126436781609</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.464285714285713</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.618122977346278</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Huge</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$O$60:$O$66</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1 Process</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 Processes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4 Processes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8 Processes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16 Processes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32 Processes</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64 Processes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$60:$S$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.329113924050633</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.172839506172839</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.672897196261681</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.681818181818181</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.310344827586207</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.28310502283105</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-2145373152"/>
+        <c:axId val="-2145287104"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2145373152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Processes</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2145287104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2145287104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Performance</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2145373152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2001,6 +2792,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2505,6 +3336,509 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3064,6 +4398,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3335,10 +4699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S65"/>
+  <dimension ref="A1:S66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q6" workbookViewId="0">
-      <selection activeCell="AA30" sqref="AA30"/>
+    <sheetView tabSelected="1" topLeftCell="P58" workbookViewId="0">
+      <selection activeCell="AB85" sqref="AB85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4575,19 +5939,19 @@
         <v>24</v>
       </c>
       <c r="P39" s="5">
-        <f>P10/P10</f>
+        <f t="shared" ref="P39:P45" si="0">P10/P10</f>
         <v>1</v>
       </c>
       <c r="Q39" s="2">
-        <f>P10/Q10</f>
+        <f t="shared" ref="Q39:Q45" si="1">P10/Q10</f>
         <v>1.028169014084507</v>
       </c>
       <c r="R39" s="5">
-        <f>P10/R10</f>
+        <f t="shared" ref="R39:R45" si="2">P10/R10</f>
         <v>0.97333333333333327</v>
       </c>
       <c r="S39" s="5">
-        <f>P10/S10</f>
+        <f t="shared" ref="S39:S45" si="3">P10/S10</f>
         <v>0.92405063291139256</v>
       </c>
     </row>
@@ -4640,19 +6004,19 @@
         <v>25</v>
       </c>
       <c r="P40" s="6">
-        <f>P11/P11</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Q40" s="1">
-        <f>P11/Q11</f>
+        <f t="shared" si="1"/>
         <v>0.98780487804878048</v>
       </c>
       <c r="R40" s="6">
-        <f>P11/R11</f>
+        <f t="shared" si="2"/>
         <v>0.98780487804878048</v>
       </c>
       <c r="S40" s="6">
-        <f>P11/S11</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -4661,19 +6025,19 @@
         <v>26</v>
       </c>
       <c r="P41" s="6">
-        <f>P12/P12</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Q41" s="1">
-        <f>P12/Q12</f>
+        <f t="shared" si="1"/>
         <v>1.024390243902439</v>
       </c>
       <c r="R41" s="6">
-        <f>P12/R12</f>
+        <f t="shared" si="2"/>
         <v>1.0120481927710843</v>
       </c>
       <c r="S41" s="6">
-        <f>P12/S12</f>
+        <f t="shared" si="3"/>
         <v>1.05</v>
       </c>
     </row>
@@ -4712,19 +6076,19 @@
         <v>27</v>
       </c>
       <c r="P42" s="5">
-        <f>P13/P13</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Q42" s="1">
-        <f>P13/Q13</f>
+        <f t="shared" si="1"/>
         <v>0.99065420560747663</v>
       </c>
       <c r="R42" s="5">
-        <f>P13/R13</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="S42" s="5">
-        <f>P13/S13</f>
+        <f t="shared" si="3"/>
         <v>0.99065420560747663</v>
       </c>
     </row>
@@ -4763,19 +6127,19 @@
         <v>28</v>
       </c>
       <c r="P43" s="6">
-        <f>P14/P14</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Q43" s="1">
-        <f>P14/Q14</f>
+        <f t="shared" si="1"/>
         <v>1.0229885057471264</v>
       </c>
       <c r="R43" s="6">
-        <f>P14/R14</f>
+        <f t="shared" si="2"/>
         <v>1.0229885057471262</v>
       </c>
       <c r="S43" s="6">
-        <f>P14/S14</f>
+        <f t="shared" si="3"/>
         <v>1.0113636363636362</v>
       </c>
     </row>
@@ -4814,19 +6178,19 @@
         <v>29</v>
       </c>
       <c r="P44" s="6">
-        <f>P15/P15</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Q44" s="1">
-        <f>P15/Q15</f>
+        <f t="shared" si="1"/>
         <v>0.78048780487804881</v>
       </c>
       <c r="R44" s="6">
-        <f>P15/R15</f>
+        <f t="shared" si="2"/>
         <v>0.85714285714285698</v>
       </c>
       <c r="S44" s="6">
-        <f>P15/S15</f>
+        <f t="shared" si="3"/>
         <v>0.82758620689655182</v>
       </c>
     </row>
@@ -4865,19 +6229,19 @@
         <v>30</v>
       </c>
       <c r="P45" s="5">
-        <f>P16/P16</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Q45" s="1">
-        <f>P16/Q16</f>
+        <f t="shared" si="1"/>
         <v>0.84666666666666668</v>
       </c>
       <c r="R45" s="5">
-        <f>P16/R16</f>
+        <f t="shared" si="2"/>
         <v>0.82200647249190939</v>
       </c>
       <c r="S45" s="5">
-        <f>P16/S16</f>
+        <f t="shared" si="3"/>
         <v>1.1598173515981736</v>
       </c>
     </row>
@@ -5334,6 +6698,21 @@
       <c r="L59" s="2">
         <v>0.45</v>
       </c>
+      <c r="O59" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P59" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="60" spans="1:19" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
@@ -5358,6 +6737,25 @@
       <c r="L60" s="1">
         <v>0.35</v>
       </c>
+      <c r="O60" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="P60" s="5">
+        <f>1/P10</f>
+        <v>6.8493150684931496</v>
+      </c>
+      <c r="Q60" s="2">
+        <f>1/Q10</f>
+        <v>7.0422535211267601</v>
+      </c>
+      <c r="R60" s="5">
+        <f>1/R10</f>
+        <v>6.6666666666666661</v>
+      </c>
+      <c r="S60" s="2">
+        <f>1/S10</f>
+        <v>6.3291139240506329</v>
+      </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
@@ -5382,6 +6780,25 @@
       <c r="L61" s="1">
         <v>0.5</v>
       </c>
+      <c r="O61" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P61" s="6">
+        <f>1/P11</f>
+        <v>6.1728395061728394</v>
+      </c>
+      <c r="Q61" s="2">
+        <f t="shared" ref="Q61:S66" si="4">1/Q11</f>
+        <v>6.0975609756097562</v>
+      </c>
+      <c r="R61" s="6">
+        <f>1/R11</f>
+        <v>6.0975609756097562</v>
+      </c>
+      <c r="S61" s="2">
+        <f t="shared" si="4"/>
+        <v>6.1728395061728394</v>
+      </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
@@ -5406,6 +6823,25 @@
       <c r="L62" s="1">
         <v>0.44</v>
       </c>
+      <c r="O62" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P62" s="6">
+        <f>1/P12</f>
+        <v>5.9523809523809517</v>
+      </c>
+      <c r="Q62" s="2">
+        <f t="shared" si="4"/>
+        <v>6.0975609756097562</v>
+      </c>
+      <c r="R62" s="6">
+        <f>1/R12</f>
+        <v>6.0240963855421681</v>
+      </c>
+      <c r="S62" s="2">
+        <f t="shared" si="4"/>
+        <v>6.25</v>
+      </c>
     </row>
     <row r="63" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
@@ -5430,6 +6866,25 @@
       <c r="L63" s="12">
         <v>0.45</v>
       </c>
+      <c r="O63" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="P63" s="5">
+        <f>1/P13</f>
+        <v>4.7169811320754711</v>
+      </c>
+      <c r="Q63" s="2">
+        <f t="shared" si="4"/>
+        <v>4.6728971962616814</v>
+      </c>
+      <c r="R63" s="5">
+        <f>1/R13</f>
+        <v>4.7169811320754711</v>
+      </c>
+      <c r="S63" s="2">
+        <f t="shared" si="4"/>
+        <v>4.6728971962616814</v>
+      </c>
     </row>
     <row r="64" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
@@ -5461,8 +6916,27 @@
       <c r="M64" s="16" t="s">
         <v>18</v>
       </c>
+      <c r="O64" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P64" s="6">
+        <f>1/P14</f>
+        <v>5.617977528089888</v>
+      </c>
+      <c r="Q64" s="2">
+        <f t="shared" si="4"/>
+        <v>5.7471264367816097</v>
+      </c>
+      <c r="R64" s="6">
+        <f>1/R14</f>
+        <v>5.7471264367816088</v>
+      </c>
+      <c r="S64" s="2">
+        <f t="shared" si="4"/>
+        <v>5.6818181818181817</v>
+      </c>
     </row>
-    <row r="65" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
         <v>5</v>
       </c>
@@ -5484,6 +6958,46 @@
       </c>
       <c r="F65" t="s">
         <v>19</v>
+      </c>
+      <c r="O65" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="P65" s="6">
+        <f>1/P15</f>
+        <v>5.208333333333333</v>
+      </c>
+      <c r="Q65" s="2">
+        <f t="shared" si="4"/>
+        <v>4.0650406504065044</v>
+      </c>
+      <c r="R65" s="6">
+        <f>1/R15</f>
+        <v>4.4642857142857135</v>
+      </c>
+      <c r="S65" s="2">
+        <f t="shared" si="4"/>
+        <v>4.3103448275862073</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O66" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="P66" s="5">
+        <f>1/P16</f>
+        <v>1.9685039370078741</v>
+      </c>
+      <c r="Q66" s="2">
+        <f t="shared" si="4"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="R66" s="5">
+        <f>1/R16</f>
+        <v>1.6181229773462784</v>
+      </c>
+      <c r="S66" s="2">
+        <f t="shared" si="4"/>
+        <v>2.2831050228310503</v>
       </c>
     </row>
   </sheetData>
